--- a/sources/fact_extraction_viewpoint/environment-table17.xlsx
+++ b/sources/fact_extraction_viewpoint/environment-table17.xlsx
@@ -251,7 +251,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +288,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -507,17 +513,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -826,7 +832,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -841,7 +847,7 @@
   <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="50" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1067,16 +1073,16 @@
       <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="41" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1103,7 +1109,7 @@
       <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="42"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="24.9" customHeight="1">
